--- a/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2022_전문대_예체능계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2022_전문대_예체능계열.xlsx
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>25.9</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>42.9</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="5">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>9.5</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="6">
@@ -671,9 +671,7 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -711,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -750,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -789,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>8.300000000000001</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="10">
@@ -828,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>8.1</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="12">
@@ -906,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>29.4</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="13">
@@ -945,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>21.4</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="15">
@@ -1023,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1061,9 +1059,7 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1101,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>11.8</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="18">
@@ -1179,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>11.6</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="20">
@@ -1218,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="21">
@@ -1257,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="22">
@@ -1295,9 +1291,7 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1335,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="24">
@@ -1374,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>75.90000000000001</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="25">
@@ -1413,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1569,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="30">
@@ -1608,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="31">
@@ -1647,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>92.59999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
@@ -1685,9 +1679,7 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1725,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>114.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="34">
@@ -1763,8 +1755,10 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1802,9 +1796,7 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1842,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>153.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1881,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>13.3</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="38">
@@ -1920,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>38.5</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="39">
@@ -1998,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="41">
@@ -2037,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>8.6</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="46">
@@ -2271,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2310,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="49">
@@ -2349,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>7.3</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="50">
@@ -2388,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="51">
@@ -2427,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="I51" t="n">
-        <v>4.9</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="52">
@@ -2505,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="54">
@@ -2583,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="56">
@@ -2622,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>1.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="57">
@@ -2700,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="59">
@@ -2739,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>25</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="60">
@@ -2778,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.8</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="61">
@@ -2856,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="63">
@@ -3051,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="68">
@@ -3090,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3129,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>13.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="70">
@@ -3168,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>58.3</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="71">
@@ -3207,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="72">
@@ -3246,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3285,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>5.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="74">
@@ -3402,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="77">
@@ -3441,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>5.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="78">
@@ -3480,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>3.7</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="79">
@@ -3519,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>32.8</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="80">
@@ -3558,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>19.6</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="81">
@@ -3597,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3675,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>11.5</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="84">
@@ -3792,7 +3784,7 @@
         <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>5.2</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="87">
@@ -3831,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="88">
@@ -3870,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="89">
@@ -3909,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3987,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4026,7 +4018,7 @@
         <v>21</v>
       </c>
       <c r="I92" t="n">
-        <v>17.2</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="93">
@@ -4065,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="94">
@@ -4104,7 +4096,7 @@
         <v>11</v>
       </c>
       <c r="I94" t="n">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="95">
@@ -4143,7 +4135,7 @@
         <v>11</v>
       </c>
       <c r="I95" t="n">
-        <v>6.2</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="96">
@@ -4182,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="97">
@@ -4221,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>6.4</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="98">
@@ -4260,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4338,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3.4</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="101">
@@ -4377,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="102">
@@ -4416,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>12.1</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="103">
@@ -4455,7 +4447,7 @@
         <v>9</v>
       </c>
       <c r="I103" t="n">
-        <v>8.5</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="104">
@@ -4494,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="105">
@@ -4533,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="I105" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="106">
@@ -4572,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="107">
@@ -4611,7 +4603,7 @@
         <v>8</v>
       </c>
       <c r="I107" t="n">
-        <v>11.2</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="108">
@@ -4650,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>5.8</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="109">
@@ -4689,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="n">
-        <v>11.9</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="110">
@@ -4767,7 +4759,7 @@
         <v>7</v>
       </c>
       <c r="I111" t="n">
-        <v>4.2</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="112">
@@ -4806,7 +4798,7 @@
         <v>11</v>
       </c>
       <c r="I112" t="n">
-        <v>8.800000000000001</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4884,7 +4876,7 @@
         <v>8</v>
       </c>
       <c r="I114" t="n">
-        <v>4.4</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="115">
@@ -4923,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="116">
@@ -4962,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="I116" t="n">
-        <v>8.9</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="117">
@@ -5001,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>8.199999999999999</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="118">
@@ -5079,7 +5071,7 @@
         <v>17</v>
       </c>
       <c r="I119" t="n">
-        <v>7.6</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="120">
@@ -5157,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5196,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="123">
@@ -5235,7 +5227,7 @@
         <v>8</v>
       </c>
       <c r="I123" t="n">
-        <v>5.5</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="124">
@@ -5274,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="125">
@@ -5313,7 +5305,7 @@
         <v>6</v>
       </c>
       <c r="I125" t="n">
-        <v>6.7</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="126">
@@ -5430,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>26.7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="129">
@@ -5469,7 +5461,7 @@
         <v>7</v>
       </c>
       <c r="I129" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="130">
@@ -5508,7 +5500,7 @@
         <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>5.2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="131">
@@ -5586,7 +5578,7 @@
         <v>7</v>
       </c>
       <c r="I132" t="n">
-        <v>2.8</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="133">
@@ -5664,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="135">
@@ -5703,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="136">
@@ -5781,7 +5773,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="n">
-        <v>8.6</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="138">
@@ -5859,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="I139" t="n">
-        <v>3.9</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="140">
@@ -6015,7 +6007,7 @@
         <v>14</v>
       </c>
       <c r="I143" t="n">
-        <v>9.5</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="144">
@@ -6054,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6288,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>28.2</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="151">
@@ -6327,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6365,9 +6357,7 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6404,9 +6394,7 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6444,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="n">
-        <v>12.9</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="155">
@@ -6483,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>15.4</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="156">
@@ -6678,7 +6666,7 @@
         <v>10</v>
       </c>
       <c r="I160" t="n">
-        <v>16.4</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="161">
@@ -6717,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>31.6</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="162">
@@ -6755,8 +6743,10 @@
       <c r="H162" t="n">
         <v>6</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -6794,8 +6784,10 @@
       <c r="H163" t="n">
         <v>8</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -6951,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6990,7 +6982,7 @@
         <v>14</v>
       </c>
       <c r="I168" t="n">
-        <v>18</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="169">
@@ -7029,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
@@ -7068,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>15.4</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="171">
@@ -7107,7 +7099,7 @@
         <v>7</v>
       </c>
       <c r="I171" t="n">
-        <v>6.1</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="172">
@@ -7223,8 +7215,10 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -7262,8 +7256,10 @@
       <c r="H175" t="n">
         <v>18</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -7458,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7497,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>41.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7536,7 +7532,7 @@
         <v>7</v>
       </c>
       <c r="I182" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="183">
@@ -7575,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="184">
@@ -7653,7 +7649,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -7692,7 +7688,7 @@
         <v>7</v>
       </c>
       <c r="I186" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="187">
@@ -7731,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>13.4</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="188">
@@ -7770,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I188" t="n">
-        <v>15.6</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="189">
@@ -7809,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>9.6</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="190">
@@ -7848,7 +7844,7 @@
         <v>11</v>
       </c>
       <c r="I190" t="n">
-        <v>16.4</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="191">
@@ -7887,7 +7883,7 @@
         <v>9</v>
       </c>
       <c r="I191" t="n">
-        <v>9.1</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="192">
@@ -7926,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>12.1</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="193">
@@ -7965,7 +7961,7 @@
         <v>5</v>
       </c>
       <c r="I193" t="n">
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="194">
@@ -8082,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -8121,7 +8117,7 @@
         <v>12</v>
       </c>
       <c r="I197" t="n">
-        <v>16.5</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="198">
@@ -8160,7 +8156,7 @@
         <v>3</v>
       </c>
       <c r="I198" t="n">
-        <v>4</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="199">
@@ -8199,7 +8195,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>12.8</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="200">
@@ -8238,7 +8234,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="201">
@@ -8277,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -8355,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8472,7 +8468,7 @@
         <v>9</v>
       </c>
       <c r="I206" t="n">
-        <v>11.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="207">
@@ -8510,9 +8506,7 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8550,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>18.8</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="209">
@@ -8589,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8628,7 +8622,7 @@
         <v>12</v>
       </c>
       <c r="I210" t="n">
-        <v>14.8</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="211">
@@ -8667,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>6.1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="212">
@@ -8706,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="213">
@@ -8745,7 +8739,7 @@
         <v>6</v>
       </c>
       <c r="I213" t="n">
-        <v>13.6</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="214">
@@ -8784,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -8823,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -8862,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="217">
@@ -8901,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8979,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -9018,7 +9012,7 @@
         <v>6</v>
       </c>
       <c r="I220" t="n">
-        <v>11.8</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="221">
@@ -9057,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -9096,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9135,7 +9129,7 @@
         <v>11</v>
       </c>
       <c r="I223" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="224">
@@ -9174,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>13.9</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="225">
@@ -9213,7 +9207,7 @@
         <v>6</v>
       </c>
       <c r="I225" t="n">
-        <v>31.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="226">
@@ -9251,8 +9245,10 @@
       <c r="H226" t="n">
         <v>2</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -9291,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="n">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="228">
@@ -9330,7 +9326,7 @@
         <v>3</v>
       </c>
       <c r="I228" t="n">
-        <v>15.8</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="229">
@@ -9369,7 +9365,7 @@
         <v>5</v>
       </c>
       <c r="I229" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="230">
@@ -9408,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>27.3</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="231">
@@ -9447,7 +9443,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>17.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="232">
@@ -9486,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="n">
-        <v>7.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="233">
@@ -9525,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="n">
-        <v>85.7</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="234">
@@ -9564,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="I234" t="n">
-        <v>23</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -9603,7 +9599,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -9642,7 +9638,7 @@
         <v>3</v>
       </c>
       <c r="I236" t="n">
-        <v>10.9</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="237">
@@ -9681,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>16.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -9720,7 +9716,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>14.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="239">
@@ -9759,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -9798,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -9837,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -9876,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -9915,7 +9911,7 @@
         <v>7</v>
       </c>
       <c r="I243" t="n">
-        <v>14.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="244">
@@ -9954,7 +9950,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="n">
-        <v>11.5</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="245">
@@ -9993,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -10032,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="I246" t="n">
-        <v>13.2</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="247">
@@ -10071,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="248">
@@ -10110,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -10149,7 +10145,7 @@
         <v>6</v>
       </c>
       <c r="I249" t="n">
-        <v>33.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="250">
@@ -10188,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="I250" t="n">
-        <v>88.90000000000001</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="251">
@@ -10227,7 +10223,7 @@
         <v>10</v>
       </c>
       <c r="I251" t="n">
-        <v>26</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="252">
@@ -10266,7 +10262,7 @@
         <v>5</v>
       </c>
       <c r="I252" t="n">
-        <v>26.3</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="253">
@@ -10305,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>28.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -10344,7 +10340,7 @@
         <v>10</v>
       </c>
       <c r="I254" t="n">
-        <v>18.2</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="255">
@@ -10383,7 +10379,7 @@
         <v>3</v>
       </c>
       <c r="I255" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="256">
@@ -10500,7 +10496,7 @@
         <v>3</v>
       </c>
       <c r="I258" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="259">
@@ -10539,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="n">
-        <v>11.4</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="260">
@@ -10578,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="261">
@@ -10695,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -10734,7 +10730,7 @@
         <v>10</v>
       </c>
       <c r="I264" t="n">
-        <v>16.5</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="265">
@@ -10773,7 +10769,7 @@
         <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>19.4</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="266">
@@ -10812,7 +10808,7 @@
         <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>10.2</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="267">
@@ -10890,7 +10886,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="n">
-        <v>14.3</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="269">
@@ -10929,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="270">
@@ -10968,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="n">
-        <v>12.8</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="271">
@@ -11007,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="n">
-        <v>75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="272">
@@ -11046,7 +11042,7 @@
         <v>5</v>
       </c>
       <c r="I272" t="n">
-        <v>19.1</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="273">
@@ -11124,7 +11120,7 @@
         <v>7</v>
       </c>
       <c r="I274" t="n">
-        <v>14.5</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="275">
@@ -11163,7 +11159,7 @@
         <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>7.8</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="276">
@@ -11202,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -11241,7 +11237,7 @@
         <v>9</v>
       </c>
       <c r="I277" t="n">
-        <v>13.2</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="278">
@@ -11280,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>14.7</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="279">
@@ -11319,7 +11315,7 @@
         <v>5</v>
       </c>
       <c r="I279" t="n">
-        <v>8.1</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="280">
@@ -11358,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -11397,7 +11393,7 @@
         <v>11</v>
       </c>
       <c r="I281" t="n">
-        <v>10.1</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="282">
@@ -11436,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -11475,7 +11471,7 @@
         <v>3</v>
       </c>
       <c r="I283" t="n">
-        <v>9.5</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="284">
@@ -11553,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -11592,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="n">
-        <v>6.8</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="287">
@@ -11631,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="I287" t="n">
-        <v>2.6</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="288">
@@ -11670,7 +11666,7 @@
         <v>5</v>
       </c>
       <c r="I288" t="n">
-        <v>8.6</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="289">
@@ -11748,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>26.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -11787,7 +11783,7 @@
         <v>10</v>
       </c>
       <c r="I291" t="n">
-        <v>10.7</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="292">
@@ -11826,7 +11822,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
@@ -11865,7 +11861,7 @@
         <v>10</v>
       </c>
       <c r="I293" t="n">
-        <v>8.1</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="294">
@@ -11904,7 +11900,7 @@
         <v>14</v>
       </c>
       <c r="I294" t="n">
-        <v>15.8</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="295">
@@ -11943,7 +11939,7 @@
         <v>5</v>
       </c>
       <c r="I295" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="296">
@@ -11982,7 +11978,7 @@
         <v>3</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="297">
@@ -12021,7 +12017,7 @@
         <v>3</v>
       </c>
       <c r="I297" t="n">
-        <v>3.5</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="298">
@@ -12060,7 +12056,7 @@
         <v>3</v>
       </c>
       <c r="I298" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="299">
@@ -12099,7 +12095,7 @@
         <v>5</v>
       </c>
       <c r="I299" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="300">
@@ -12177,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="I301" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="302">
@@ -12216,7 +12212,7 @@
         <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="303">
@@ -12255,7 +12251,7 @@
         <v>3</v>
       </c>
       <c r="I303" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="304">
@@ -12294,7 +12290,7 @@
         <v>9</v>
       </c>
       <c r="I304" t="n">
-        <v>7</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="305">
@@ -12372,7 +12368,7 @@
         <v>7</v>
       </c>
       <c r="I306" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="307">
@@ -12450,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="309">
@@ -12489,7 +12485,7 @@
         <v>14</v>
       </c>
       <c r="I309" t="n">
-        <v>9.4</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="310">
@@ -12528,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="I310" t="n">
-        <v>10.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="311">
@@ -12567,7 +12563,7 @@
         <v>3</v>
       </c>
       <c r="I311" t="n">
-        <v>2.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="312">
@@ -12606,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="I312" t="n">
-        <v>3.8</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="313">
@@ -12645,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -12684,7 +12680,7 @@
         <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>3.4</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="315">
@@ -12723,7 +12719,7 @@
         <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="316">
@@ -12762,7 +12758,7 @@
         <v>7</v>
       </c>
       <c r="I316" t="n">
-        <v>5.7</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="317">
@@ -12801,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="I317" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="318">
@@ -12840,7 +12836,7 @@
         <v>19</v>
       </c>
       <c r="I318" t="n">
-        <v>6.1</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="319">
@@ -12879,7 +12875,7 @@
         <v>12</v>
       </c>
       <c r="I319" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320">
@@ -12918,7 +12914,7 @@
         <v>7</v>
       </c>
       <c r="I320" t="n">
-        <v>3.5</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="321">
@@ -13035,7 +13031,7 @@
         <v>6</v>
       </c>
       <c r="I323" t="n">
-        <v>8.6</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="324">
@@ -13074,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -13113,7 +13109,7 @@
         <v>16</v>
       </c>
       <c r="I325" t="n">
-        <v>6.9</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="326">
@@ -13152,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -13269,7 +13265,7 @@
         <v>3</v>
       </c>
       <c r="I329" t="n">
-        <v>10.7</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="330">
@@ -13308,7 +13304,7 @@
         <v>3</v>
       </c>
       <c r="I330" t="n">
-        <v>21.4</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="331">
@@ -13425,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="I333" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="334">
@@ -13503,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="I335" t="n">
-        <v>12.9</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="336">
@@ -13581,7 +13577,7 @@
         <v>7</v>
       </c>
       <c r="I337" t="n">
-        <v>16.6</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="338">
@@ -13620,7 +13616,7 @@
         <v>3</v>
       </c>
       <c r="I338" t="n">
-        <v>13.9</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="339">
@@ -13659,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="I339" t="n">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="340">
@@ -13698,7 +13694,7 @@
         <v>10</v>
       </c>
       <c r="I340" t="n">
-        <v>8.9</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="341">
@@ -13737,7 +13733,7 @@
         <v>17</v>
       </c>
       <c r="I341" t="n">
-        <v>17.6</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="342">
@@ -13776,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="343">
@@ -13854,7 +13850,7 @@
         <v>19</v>
       </c>
       <c r="I344" t="n">
-        <v>17.7</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="345">
@@ -13932,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -13971,7 +13967,7 @@
         <v>10</v>
       </c>
       <c r="I347" t="n">
-        <v>17.7</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="348">
@@ -14010,7 +14006,7 @@
         <v>15</v>
       </c>
       <c r="I348" t="n">
-        <v>25.4</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="349">
@@ -14049,7 +14045,7 @@
         <v>3</v>
       </c>
       <c r="I349" t="n">
-        <v>13.5</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="350">
@@ -14088,7 +14084,7 @@
         <v>15</v>
       </c>
       <c r="I350" t="n">
-        <v>19.1</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="351">
@@ -14127,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="I351" t="n">
-        <v>16</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="352">
@@ -14166,7 +14162,7 @@
         <v>9</v>
       </c>
       <c r="I352" t="n">
-        <v>8.800000000000001</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="353">
@@ -14205,7 +14201,7 @@
         <v>9</v>
       </c>
       <c r="I353" t="n">
-        <v>4.9</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="354">
@@ -14244,7 +14240,7 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="355">
@@ -14283,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="I355" t="n">
-        <v>33.3</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="356">
@@ -14322,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="I356" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="357">
@@ -14361,7 +14357,7 @@
         <v>2</v>
       </c>
       <c r="I357" t="n">
-        <v>4.6</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="358">
@@ -14400,7 +14396,7 @@
         <v>7</v>
       </c>
       <c r="I358" t="n">
-        <v>5.4</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="359">
@@ -14439,7 +14435,7 @@
         <v>6</v>
       </c>
       <c r="I359" t="n">
-        <v>21.1</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="360">
@@ -14478,7 +14474,7 @@
         <v>10</v>
       </c>
       <c r="I360" t="n">
-        <v>5.2</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="361">
@@ -14517,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -14556,7 +14552,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="363">
@@ -14595,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="I363" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="364">
@@ -14633,9 +14629,7 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -14672,8 +14666,10 @@
       <c r="H365" t="n">
         <v>3</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="366">
@@ -14751,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -14828,9 +14824,7 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -14868,7 +14862,7 @@
         <v>11</v>
       </c>
       <c r="I370" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="371">
@@ -14906,8 +14900,10 @@
       <c r="H371" t="n">
         <v>3</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="372">
@@ -14946,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="I372" t="n">
-        <v>5.1</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="373">
@@ -14985,7 +14981,7 @@
         <v>13</v>
       </c>
       <c r="I373" t="n">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="374">
@@ -15024,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="I374" t="n">
-        <v>16.7</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="375">
@@ -15063,7 +15059,7 @@
         <v>5</v>
       </c>
       <c r="I375" t="n">
-        <v>20.7</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="376">
@@ -15140,8 +15136,10 @@
       <c r="H377" t="n">
         <v>2</v>
       </c>
-      <c r="I377" t="n">
-        <v>0</v>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="378">
@@ -15180,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="I378" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="379">
@@ -15219,7 +15217,7 @@
         <v>10</v>
       </c>
       <c r="I379" t="n">
-        <v>13.2</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="380">
@@ -15258,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="I380" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="381">
@@ -15297,7 +15295,7 @@
         <v>6</v>
       </c>
       <c r="I381" t="n">
-        <v>5</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="382">
@@ -15336,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -15414,7 +15412,7 @@
         <v>3</v>
       </c>
       <c r="I384" t="n">
-        <v>11.4</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="385">
@@ -15453,7 +15451,7 @@
         <v>2</v>
       </c>
       <c r="I385" t="n">
-        <v>95.8</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="386">
@@ -15492,7 +15490,7 @@
         <v>9</v>
       </c>
       <c r="I386" t="n">
-        <v>17.6</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="387">
@@ -15531,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -15570,7 +15568,7 @@
         <v>7</v>
       </c>
       <c r="I388" t="n">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="389">
@@ -15609,7 +15607,7 @@
         <v>3</v>
       </c>
       <c r="I389" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="390">
@@ -15648,7 +15646,7 @@
         <v>21</v>
       </c>
       <c r="I390" t="n">
-        <v>13.2</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="391">
@@ -15687,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -15726,7 +15724,7 @@
         <v>5</v>
       </c>
       <c r="I392" t="n">
-        <v>5.4</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="393">
@@ -15765,7 +15763,7 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>14.8</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="394">
@@ -15804,7 +15802,7 @@
         <v>5</v>
       </c>
       <c r="I394" t="n">
-        <v>8.1</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="395">
@@ -15843,7 +15841,7 @@
         <v>47</v>
       </c>
       <c r="I395" t="n">
-        <v>15.3</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="396">
@@ -15882,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -15921,7 +15919,7 @@
         <v>1</v>
       </c>
       <c r="I397" t="n">
-        <v>6.1</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="398">
@@ -15960,7 +15958,7 @@
         <v>24</v>
       </c>
       <c r="I398" t="n">
-        <v>14.8</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="399">
@@ -15999,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -16038,7 +16036,7 @@
         <v>11</v>
       </c>
       <c r="I400" t="n">
-        <v>11.2</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="401">
@@ -16077,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -16116,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -16155,7 +16153,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="404">
@@ -16194,7 +16192,7 @@
         <v>46</v>
       </c>
       <c r="I404" t="n">
-        <v>12.1</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="405">
@@ -16233,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="I405" t="n">
-        <v>4.3</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="406">
@@ -16272,7 +16270,7 @@
         <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>14.1</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="407">
@@ -16311,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="n">
-        <v>15.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -16349,8 +16347,10 @@
       <c r="H408" t="n">
         <v>3</v>
       </c>
-      <c r="I408" t="n">
-        <v>0</v>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="409">
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -16428,7 +16428,7 @@
         <v>9</v>
       </c>
       <c r="I410" t="n">
-        <v>40.3</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="411">
@@ -16467,7 +16467,7 @@
         <v>8</v>
       </c>
       <c r="I411" t="n">
-        <v>12.3</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="412">
@@ -16506,7 +16506,7 @@
         <v>5</v>
       </c>
       <c r="I412" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>78.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -16623,7 +16623,7 @@
         <v>6</v>
       </c>
       <c r="I415" t="n">
-        <v>17.6</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="416">
@@ -16662,7 +16662,7 @@
         <v>2</v>
       </c>
       <c r="I416" t="n">
-        <v>88.2</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="417">
@@ -16701,7 +16701,7 @@
         <v>2</v>
       </c>
       <c r="I417" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418">
@@ -16740,7 +16740,7 @@
         <v>5</v>
       </c>
       <c r="I418" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="419">
@@ -16779,7 +16779,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>22.7</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="420">
@@ -16818,7 +16818,7 @@
         <v>2</v>
       </c>
       <c r="I420" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="421">
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -16896,7 +16896,7 @@
         <v>7</v>
       </c>
       <c r="I422" t="n">
-        <v>10.2</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="423">
@@ -16935,7 +16935,7 @@
         <v>3</v>
       </c>
       <c r="I423" t="n">
-        <v>71.8</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="424">
@@ -16974,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -17013,7 +17013,7 @@
         <v>2</v>
       </c>
       <c r="I425" t="n">
-        <v>17.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="426">
@@ -17052,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="I426" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="427">
@@ -17130,7 +17130,7 @@
         <v>6</v>
       </c>
       <c r="I428" t="n">
-        <v>14.6</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="429">
@@ -17169,7 +17169,7 @@
         <v>1</v>
       </c>
       <c r="I429" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="430">
@@ -17208,7 +17208,7 @@
         <v>3</v>
       </c>
       <c r="I430" t="n">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="431">
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="I431" t="n">
-        <v>55.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="432">
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -17325,7 +17325,7 @@
         <v>3</v>
       </c>
       <c r="I433" t="n">
-        <v>15.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="434">
@@ -17364,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -17442,7 +17442,7 @@
         <v>16</v>
       </c>
       <c r="I436" t="n">
-        <v>7.8</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="437">
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -17637,7 +17637,7 @@
         <v>1</v>
       </c>
       <c r="I441" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="442">
@@ -17676,7 +17676,7 @@
         <v>5</v>
       </c>
       <c r="I442" t="n">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="443">
@@ -17715,7 +17715,7 @@
         <v>8</v>
       </c>
       <c r="I443" t="n">
-        <v>10.1</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="444">
@@ -17754,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I444" t="n">
-        <v>21.1</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="445">
@@ -17793,7 +17793,7 @@
         <v>4</v>
       </c>
       <c r="I445" t="n">
-        <v>12.1</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="446">
@@ -17832,7 +17832,7 @@
         <v>1</v>
       </c>
       <c r="I446" t="n">
-        <v>12.1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="447">
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -17949,7 +17949,7 @@
         <v>9</v>
       </c>
       <c r="I449" t="n">
-        <v>55.9</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="450">
@@ -17988,7 +17988,7 @@
         <v>2</v>
       </c>
       <c r="I450" t="n">
-        <v>27.8</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="451">
@@ -18027,7 +18027,7 @@
         <v>4</v>
       </c>
       <c r="I451" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="452">
@@ -18066,7 +18066,7 @@
         <v>15</v>
       </c>
       <c r="I452" t="n">
-        <v>15.7</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="453">
@@ -18105,7 +18105,7 @@
         <v>8</v>
       </c>
       <c r="I453" t="n">
-        <v>15.4</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="454">
@@ -18144,7 +18144,7 @@
         <v>15</v>
       </c>
       <c r="I454" t="n">
-        <v>28.6</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="455">
@@ -18222,7 +18222,7 @@
         <v>4</v>
       </c>
       <c r="I456" t="n">
-        <v>14.5</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="457">
@@ -18260,9 +18260,7 @@
       <c r="H457" t="n">
         <v>0</v>
       </c>
-      <c r="I457" t="n">
-        <v>0</v>
-      </c>
+      <c r="I457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -18300,7 +18298,7 @@
         <v>11</v>
       </c>
       <c r="I458" t="n">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="459">
@@ -18339,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -18378,7 +18376,7 @@
         <v>1</v>
       </c>
       <c r="I460" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="461">
@@ -18417,7 +18415,7 @@
         <v>2</v>
       </c>
       <c r="I461" t="n">
-        <v>25</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="462">
@@ -18495,7 +18493,7 @@
         <v>1</v>
       </c>
       <c r="I463" t="n">
-        <v>13.6</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="464">
@@ -18573,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -18612,7 +18610,7 @@
         <v>9</v>
       </c>
       <c r="I466" t="n">
-        <v>5.5</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="467">
@@ -18651,7 +18649,7 @@
         <v>3</v>
       </c>
       <c r="I467" t="n">
-        <v>9.699999999999999</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="468">
@@ -18690,7 +18688,7 @@
         <v>4</v>
       </c>
       <c r="I468" t="n">
-        <v>10.2</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="469">
@@ -18768,7 +18766,7 @@
         <v>2</v>
       </c>
       <c r="I470" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -18807,7 +18805,7 @@
         <v>5</v>
       </c>
       <c r="I471" t="n">
-        <v>34.2</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="472">
@@ -18846,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -18885,7 +18883,7 @@
         <v>2</v>
       </c>
       <c r="I473" t="n">
-        <v>4.4</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="474">
@@ -18963,7 +18961,7 @@
         <v>6</v>
       </c>
       <c r="I475" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="476">
@@ -19002,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="I476" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="477">
@@ -19041,7 +19039,7 @@
         <v>9</v>
       </c>
       <c r="I477" t="n">
-        <v>6.4</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="478">
@@ -19080,7 +19078,7 @@
         <v>2</v>
       </c>
       <c r="I478" t="n">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="479">
@@ -19119,7 +19117,7 @@
         <v>2</v>
       </c>
       <c r="I479" t="n">
-        <v>3</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="480">
@@ -19197,7 +19195,7 @@
         <v>2</v>
       </c>
       <c r="I481" t="n">
-        <v>1.9</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="482">
@@ -19236,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="I482" t="n">
-        <v>2.7</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="483">
@@ -19275,7 +19273,7 @@
         <v>7</v>
       </c>
       <c r="I483" t="n">
-        <v>6.4</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="484">
@@ -19314,7 +19312,7 @@
         <v>2</v>
       </c>
       <c r="I484" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="485">
@@ -19353,7 +19351,7 @@
         <v>2</v>
       </c>
       <c r="I485" t="n">
-        <v>3.6</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="486">
@@ -19392,7 +19390,7 @@
         <v>2</v>
       </c>
       <c r="I486" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="487">
@@ -19431,7 +19429,7 @@
         <v>5</v>
       </c>
       <c r="I487" t="n">
-        <v>3.7</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="488">
@@ -19470,7 +19468,7 @@
         <v>3</v>
       </c>
       <c r="I488" t="n">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="489">
@@ -19509,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -19548,7 +19546,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -19626,7 +19624,7 @@
         <v>8</v>
       </c>
       <c r="I492" t="n">
-        <v>6.6</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="493">
@@ -19665,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="I493" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="494">
@@ -19704,7 +19702,7 @@
         <v>12</v>
       </c>
       <c r="I494" t="n">
-        <v>10.1</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="495">
@@ -19782,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -19860,7 +19858,7 @@
         <v>7</v>
       </c>
       <c r="I498" t="n">
-        <v>9.9</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="499">
@@ -19899,7 +19897,7 @@
         <v>6</v>
       </c>
       <c r="I499" t="n">
-        <v>19.2</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="500">
@@ -19938,7 +19936,7 @@
         <v>2</v>
       </c>
       <c r="I500" t="n">
-        <v>7.1</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="501">
@@ -20016,7 +20014,7 @@
         <v>8</v>
       </c>
       <c r="I502" t="n">
-        <v>7.5</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="503">
@@ -20055,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -20172,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="I506" t="n">
-        <v>12.7</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="507">
@@ -20211,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -20289,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="I509" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="510">
@@ -20328,7 +20326,7 @@
         <v>10</v>
       </c>
       <c r="I510" t="n">
-        <v>7.2</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="511">
@@ -20367,7 +20365,7 @@
         <v>5</v>
       </c>
       <c r="I511" t="n">
-        <v>20.6</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="512">
@@ -20406,7 +20404,7 @@
         <v>5</v>
       </c>
       <c r="I512" t="n">
-        <v>8.300000000000001</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="513">
@@ -20484,7 +20482,7 @@
         <v>3</v>
       </c>
       <c r="I514" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515">
@@ -20757,7 +20755,7 @@
         <v>6</v>
       </c>
       <c r="I521" t="n">
-        <v>25.6</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="522">
@@ -20796,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -20835,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -20874,7 +20872,7 @@
         <v>1</v>
       </c>
       <c r="I524" t="n">
-        <v>71.40000000000001</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="525">
@@ -20913,7 +20911,7 @@
         <v>13</v>
       </c>
       <c r="I525" t="n">
-        <v>30.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="526">
@@ -20952,7 +20950,7 @@
         <v>2</v>
       </c>
       <c r="I526" t="n">
-        <v>33.3</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="527">
@@ -20991,7 +20989,7 @@
         <v>1</v>
       </c>
       <c r="I527" t="n">
-        <v>43.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="528">
@@ -21030,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="I528" t="n">
-        <v>30.3</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="529">
@@ -21147,7 +21145,7 @@
         <v>1</v>
       </c>
       <c r="I531" t="n">
-        <v>4.3</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="532">
@@ -21186,7 +21184,7 @@
         <v>2</v>
       </c>
       <c r="I532" t="n">
-        <v>4.9</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="533">
@@ -21225,7 +21223,7 @@
         <v>4</v>
       </c>
       <c r="I533" t="n">
-        <v>23.2</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="534">
@@ -21264,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -21303,7 +21301,7 @@
         <v>10</v>
       </c>
       <c r="I535" t="n">
-        <v>7.6</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="536">
@@ -21342,7 +21340,7 @@
         <v>1</v>
       </c>
       <c r="I536" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="537">
@@ -21381,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -21420,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -21459,7 +21457,7 @@
         <v>9</v>
       </c>
       <c r="I539" t="n">
-        <v>9.800000000000001</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="540">
@@ -21498,7 +21496,7 @@
         <v>6</v>
       </c>
       <c r="I540" t="n">
-        <v>16.7</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="541">
@@ -21537,7 +21535,7 @@
         <v>6</v>
       </c>
       <c r="I541" t="n">
-        <v>6.4</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="542">
@@ -21576,7 +21574,7 @@
         <v>1</v>
       </c>
       <c r="I542" t="n">
-        <v>28.6</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="543">
@@ -21615,7 +21613,7 @@
         <v>6</v>
       </c>
       <c r="I543" t="n">
-        <v>7.7</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="544">
@@ -21654,7 +21652,7 @@
         <v>6</v>
       </c>
       <c r="I544" t="n">
-        <v>22.9</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="545">
@@ -21693,7 +21691,7 @@
         <v>7</v>
       </c>
       <c r="I545" t="n">
-        <v>8.4</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="546">
@@ -21732,7 +21730,7 @@
         <v>8</v>
       </c>
       <c r="I546" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="547">
@@ -21771,7 +21769,7 @@
         <v>7</v>
       </c>
       <c r="I547" t="n">
-        <v>14.9</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="548">
@@ -21810,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -21849,7 +21847,7 @@
         <v>4</v>
       </c>
       <c r="I549" t="n">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="550">
@@ -21888,7 +21886,7 @@
         <v>3</v>
       </c>
       <c r="I550" t="n">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="551">
@@ -21927,7 +21925,7 @@
         <v>1</v>
       </c>
       <c r="I551" t="n">
-        <v>11.8</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="552">
@@ -21966,7 +21964,7 @@
         <v>5</v>
       </c>
       <c r="I552" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="553">
@@ -22005,7 +22003,7 @@
         <v>2</v>
       </c>
       <c r="I553" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="554">
@@ -22044,7 +22042,7 @@
         <v>5</v>
       </c>
       <c r="I554" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="555">
@@ -22083,7 +22081,7 @@
         <v>3</v>
       </c>
       <c r="I555" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="556">
@@ -22122,7 +22120,7 @@
         <v>8</v>
       </c>
       <c r="I556" t="n">
-        <v>6.7</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="557">
@@ -22161,7 +22159,7 @@
         <v>6</v>
       </c>
       <c r="I557" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="558">
@@ -22200,7 +22198,7 @@
         <v>2</v>
       </c>
       <c r="I558" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="559">
@@ -22239,7 +22237,7 @@
         <v>15</v>
       </c>
       <c r="I559" t="n">
-        <v>13.4</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="560">
@@ -22278,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -22317,7 +22315,7 @@
         <v>11</v>
       </c>
       <c r="I561" t="n">
-        <v>13.2</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="562">
@@ -22356,7 +22354,7 @@
         <v>12</v>
       </c>
       <c r="I562" t="n">
-        <v>12</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="563">
@@ -22395,7 +22393,7 @@
         <v>1</v>
       </c>
       <c r="I563" t="n">
-        <v>5.6</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="564">
@@ -22434,7 +22432,7 @@
         <v>3</v>
       </c>
       <c r="I564" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="565">
@@ -22473,7 +22471,7 @@
         <v>2</v>
       </c>
       <c r="I565" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="566">
@@ -22551,7 +22549,7 @@
         <v>5</v>
       </c>
       <c r="I567" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="568">
@@ -22590,7 +22588,7 @@
         <v>2</v>
       </c>
       <c r="I568" t="n">
-        <v>9.699999999999999</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="569">
@@ -22629,7 +22627,7 @@
         <v>8</v>
       </c>
       <c r="I569" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="570">
@@ -22707,7 +22705,7 @@
         <v>11</v>
       </c>
       <c r="I571" t="n">
-        <v>9</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="572">
@@ -22746,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -22785,7 +22783,7 @@
         <v>7</v>
       </c>
       <c r="I573" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="574">
@@ -22824,7 +22822,7 @@
         <v>2</v>
       </c>
       <c r="I574" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="575">
@@ -22863,7 +22861,7 @@
         <v>9</v>
       </c>
       <c r="I575" t="n">
-        <v>17.2</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="576">
@@ -22902,7 +22900,7 @@
         <v>17</v>
       </c>
       <c r="I576" t="n">
-        <v>8.699999999999999</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="577">
@@ -22941,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="I577" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="578">
@@ -22980,7 +22978,7 @@
         <v>2</v>
       </c>
       <c r="I578" t="n">
-        <v>6.5</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="579">
@@ -23058,7 +23056,7 @@
         <v>9</v>
       </c>
       <c r="I580" t="n">
-        <v>9</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="581">
@@ -23097,7 +23095,7 @@
         <v>11</v>
       </c>
       <c r="I581" t="n">
-        <v>25.4</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="582">
@@ -23136,7 +23134,7 @@
         <v>2</v>
       </c>
       <c r="I582" t="n">
-        <v>21.4</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="583">
@@ -23175,7 +23173,7 @@
         <v>6</v>
       </c>
       <c r="I583" t="n">
-        <v>8.9</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="584">
@@ -23253,7 +23251,7 @@
         <v>8</v>
       </c>
       <c r="I585" t="n">
-        <v>21.4</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="586">
@@ -23292,7 +23290,7 @@
         <v>6</v>
       </c>
       <c r="I586" t="n">
-        <v>16.4</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="587">
@@ -23331,7 +23329,7 @@
         <v>5</v>
       </c>
       <c r="I587" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="588">
@@ -23370,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -23409,7 +23407,7 @@
         <v>1</v>
       </c>
       <c r="I589" t="n">
-        <v>4.4</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="590">
@@ -23487,7 +23485,7 @@
         <v>22</v>
       </c>
       <c r="I591" t="n">
-        <v>15.4</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="592">
@@ -23565,7 +23563,7 @@
         <v>2</v>
       </c>
       <c r="I593" t="n">
-        <v>6.4</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="594">
@@ -23604,7 +23602,7 @@
         <v>1</v>
       </c>
       <c r="I594" t="n">
-        <v>7.2</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="595">
@@ -23643,7 +23641,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -23682,7 +23680,7 @@
         <v>4</v>
       </c>
       <c r="I596" t="n">
-        <v>9.199999999999999</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="597">
@@ -23721,7 +23719,7 @@
         <v>2</v>
       </c>
       <c r="I597" t="n">
-        <v>8.1</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="598">
@@ -23760,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -23799,7 +23797,7 @@
         <v>15</v>
       </c>
       <c r="I599" t="n">
-        <v>8.1</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="600">
@@ -23877,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -23916,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="n">
-        <v>57.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -23994,7 +23992,7 @@
         <v>7</v>
       </c>
       <c r="I604" t="n">
-        <v>13.2</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="605">
@@ -24033,7 +24031,7 @@
         <v>1</v>
       </c>
       <c r="I605" t="n">
-        <v>2.4</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="606">
@@ -24111,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -24228,7 +24226,7 @@
         <v>22</v>
       </c>
       <c r="I610" t="n">
-        <v>6</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="611">
@@ -24267,7 +24265,7 @@
         <v>1</v>
       </c>
       <c r="I611" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="612">
@@ -24345,7 +24343,7 @@
         <v>11</v>
       </c>
       <c r="I613" t="n">
-        <v>12.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="614">
@@ -24384,7 +24382,7 @@
         <v>1</v>
       </c>
       <c r="I614" t="n">
-        <v>33.3</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="615">
@@ -24462,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="I616" t="n">
-        <v>40</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="617">
@@ -24501,7 +24499,7 @@
         <v>6</v>
       </c>
       <c r="I617" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="618">
@@ -24540,7 +24538,7 @@
         <v>5</v>
       </c>
       <c r="I618" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="619">
@@ -24579,7 +24577,7 @@
         <v>1</v>
       </c>
       <c r="I619" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="620">
@@ -24618,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="I620" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="621">
@@ -24657,7 +24655,7 @@
         <v>2</v>
       </c>
       <c r="I621" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="622">
@@ -24696,7 +24694,7 @@
         <v>5</v>
       </c>
       <c r="I622" t="n">
-        <v>4.1</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="623">
@@ -24774,7 +24772,7 @@
         <v>4</v>
       </c>
       <c r="I624" t="n">
-        <v>20.6</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="625">
@@ -24813,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -24852,7 +24850,7 @@
         <v>11</v>
       </c>
       <c r="I626" t="n">
-        <v>7.2</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="627">
@@ -24891,7 +24889,7 @@
         <v>7</v>
       </c>
       <c r="I627" t="n">
-        <v>10.1</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="628">
@@ -24930,7 +24928,7 @@
         <v>6</v>
       </c>
       <c r="I628" t="n">
-        <v>36.6</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="629">
@@ -24969,7 +24967,7 @@
         <v>6</v>
       </c>
       <c r="I629" t="n">
-        <v>8.1</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="630">
@@ -25008,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -25125,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -25164,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -25203,7 +25201,7 @@
         <v>1</v>
       </c>
       <c r="I635" t="n">
-        <v>14.3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="636">
@@ -25242,7 +25240,7 @@
         <v>2</v>
       </c>
       <c r="I636" t="n">
-        <v>7.7</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="637">
@@ -25281,7 +25279,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -25320,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -25359,7 +25357,7 @@
         <v>5</v>
       </c>
       <c r="I639" t="n">
-        <v>11.4</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="640">
@@ -25437,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -25515,7 +25513,7 @@
         <v>5</v>
       </c>
       <c r="I643" t="n">
-        <v>18.1</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="644">
@@ -25554,7 +25552,7 @@
         <v>5</v>
       </c>
       <c r="I644" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="645">
@@ -25593,7 +25591,7 @@
         <v>9</v>
       </c>
       <c r="I645" t="n">
-        <v>9.1</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="646">
@@ -25632,7 +25630,7 @@
         <v>3</v>
       </c>
       <c r="I646" t="n">
-        <v>8.199999999999999</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="647">
@@ -25671,7 +25669,7 @@
         <v>12</v>
       </c>
       <c r="I647" t="n">
-        <v>11.1</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="648">
@@ -25749,7 +25747,7 @@
         <v>6</v>
       </c>
       <c r="I649" t="n">
-        <v>6.8</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="650">
@@ -25788,7 +25786,7 @@
         <v>5</v>
       </c>
       <c r="I650" t="n">
-        <v>10.9</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="651">
@@ -25827,7 +25825,7 @@
         <v>9</v>
       </c>
       <c r="I651" t="n">
-        <v>12.3</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="652">
@@ -25866,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -25905,7 +25903,7 @@
         <v>1</v>
       </c>
       <c r="I653" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="654">
@@ -25944,7 +25942,7 @@
         <v>5</v>
       </c>
       <c r="I654" t="n">
-        <v>13.5</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="655">
@@ -25983,7 +25981,7 @@
         <v>2</v>
       </c>
       <c r="I655" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="656">
@@ -26022,7 +26020,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -26061,7 +26059,7 @@
         <v>2</v>
       </c>
       <c r="I657" t="n">
-        <v>11.5</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="658">
@@ -26100,7 +26098,7 @@
         <v>1</v>
       </c>
       <c r="I658" t="n">
-        <v>15.4</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="659">
@@ -26139,7 +26137,7 @@
         <v>13</v>
       </c>
       <c r="I659" t="n">
-        <v>10.8</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="660">
@@ -26178,7 +26176,7 @@
         <v>14</v>
       </c>
       <c r="I660" t="n">
-        <v>10</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="661">
@@ -26217,7 +26215,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -26256,7 +26254,7 @@
         <v>3</v>
       </c>
       <c r="I662" t="n">
-        <v>58.8</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="663">
@@ -26295,7 +26293,7 @@
         <v>7</v>
       </c>
       <c r="I663" t="n">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="664">
@@ -26334,7 +26332,7 @@
         <v>3</v>
       </c>
       <c r="I664" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="665">
@@ -26373,7 +26371,7 @@
         <v>3</v>
       </c>
       <c r="I665" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="666">
@@ -26412,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -26451,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -26490,7 +26488,7 @@
         <v>1</v>
       </c>
       <c r="I668" t="n">
-        <v>36.8</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="669">
@@ -26529,7 +26527,7 @@
         <v>11</v>
       </c>
       <c r="I669" t="n">
-        <v>6.5</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="670">
@@ -26568,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="I670" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="671">
@@ -26607,7 +26605,7 @@
         <v>8</v>
       </c>
       <c r="I671" t="n">
-        <v>5.8</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="672">
@@ -26646,7 +26644,7 @@
         <v>4</v>
       </c>
       <c r="I672" t="n">
-        <v>6.7</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="673">
@@ -26685,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -26724,7 +26722,7 @@
         <v>12</v>
       </c>
       <c r="I674" t="n">
-        <v>6.9</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="675">
@@ -26763,7 +26761,7 @@
         <v>2</v>
       </c>
       <c r="I675" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="676">
@@ -26841,7 +26839,7 @@
         <v>7</v>
       </c>
       <c r="I677" t="n">
-        <v>7.4</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="678">
@@ -26879,9 +26877,7 @@
       <c r="H678" t="n">
         <v>0</v>
       </c>
-      <c r="I678" t="n">
-        <v>0</v>
-      </c>
+      <c r="I678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -26919,7 +26915,7 @@
         <v>4</v>
       </c>
       <c r="I679" t="n">
-        <v>9.699999999999999</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="680">
@@ -26958,7 +26954,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -27036,7 +27032,7 @@
         <v>12</v>
       </c>
       <c r="I682" t="n">
-        <v>7.8</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="683">
@@ -27075,7 +27071,7 @@
         <v>1</v>
       </c>
       <c r="I683" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="684">
@@ -27114,7 +27110,7 @@
         <v>15</v>
       </c>
       <c r="I684" t="n">
-        <v>20</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="685">
@@ -27192,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="I686" t="n">
-        <v>6</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="687">
@@ -27270,7 +27266,7 @@
         <v>10</v>
       </c>
       <c r="I688" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="689">
@@ -27426,7 +27422,7 @@
         <v>2</v>
       </c>
       <c r="I692" t="n">
-        <v>4.9</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="693">
@@ -27543,7 +27539,7 @@
         <v>2</v>
       </c>
       <c r="I695" t="n">
-        <v>30.8</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="696">
@@ -27582,7 +27578,7 @@
         <v>3</v>
       </c>
       <c r="I696" t="n">
-        <v>7.2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="697">
@@ -27660,7 +27656,7 @@
         <v>1</v>
       </c>
       <c r="I698" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="699">
@@ -27699,7 +27695,7 @@
         <v>4</v>
       </c>
       <c r="I699" t="n">
-        <v>22.9</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="700">
@@ -27738,7 +27734,7 @@
         <v>4</v>
       </c>
       <c r="I700" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="701">
@@ -27777,7 +27773,7 @@
         <v>8</v>
       </c>
       <c r="I701" t="n">
-        <v>5</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="702">
@@ -27816,7 +27812,7 @@
         <v>4</v>
       </c>
       <c r="I702" t="n">
-        <v>5.1</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="703">
@@ -27855,7 +27851,7 @@
         <v>1</v>
       </c>
       <c r="I703" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="704">
@@ -27894,7 +27890,7 @@
         <v>6</v>
       </c>
       <c r="I704" t="n">
-        <v>4.7</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="705">
@@ -27972,7 +27968,7 @@
         <v>2</v>
       </c>
       <c r="I706" t="n">
-        <v>22.2</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="707">
@@ -28010,9 +28006,7 @@
       <c r="H707" t="n">
         <v>0</v>
       </c>
-      <c r="I707" t="n">
-        <v>0</v>
-      </c>
+      <c r="I707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -28049,9 +28043,7 @@
       <c r="H708" t="n">
         <v>0</v>
       </c>
-      <c r="I708" t="n">
-        <v>0</v>
-      </c>
+      <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -28088,9 +28080,7 @@
       <c r="H709" t="n">
         <v>0</v>
       </c>
-      <c r="I709" t="n">
-        <v>0</v>
-      </c>
+      <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -28128,7 +28118,7 @@
         <v>11</v>
       </c>
       <c r="I710" t="n">
-        <v>15.1</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="711">
@@ -28167,7 +28157,7 @@
         <v>19</v>
       </c>
       <c r="I711" t="n">
-        <v>34.5</v>
+        <v>34.55</v>
       </c>
     </row>
     <row r="712">
@@ -28206,7 +28196,7 @@
         <v>5</v>
       </c>
       <c r="I712" t="n">
-        <v>14.3</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="713">
@@ -28245,7 +28235,7 @@
         <v>5</v>
       </c>
       <c r="I713" t="n">
-        <v>21.4</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="714">
@@ -28284,7 +28274,7 @@
         <v>6</v>
       </c>
       <c r="I714" t="n">
-        <v>9.5</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="715">
@@ -28323,7 +28313,7 @@
         <v>15</v>
       </c>
       <c r="I715" t="n">
-        <v>14.2</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="716">
@@ -28362,7 +28352,7 @@
         <v>17</v>
       </c>
       <c r="I716" t="n">
-        <v>11.8</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="717">
@@ -28401,7 +28391,7 @@
         <v>6</v>
       </c>
       <c r="I717" t="n">
-        <v>7.9</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="718">
@@ -28479,7 +28469,7 @@
         <v>5</v>
       </c>
       <c r="I719" t="n">
-        <v>9.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="720">
@@ -28518,7 +28508,7 @@
         <v>7</v>
       </c>
       <c r="I720" t="n">
-        <v>11.7</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="721">
@@ -28596,7 +28586,7 @@
         <v>8</v>
       </c>
       <c r="I722" t="n">
-        <v>15.6</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="723">
@@ -28635,7 +28625,7 @@
         <v>7</v>
       </c>
       <c r="I723" t="n">
-        <v>9.9</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="724">
@@ -28674,7 +28664,7 @@
         <v>8</v>
       </c>
       <c r="I724" t="n">
-        <v>10.9</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="725">
@@ -28713,7 +28703,7 @@
         <v>7</v>
       </c>
       <c r="I725" t="n">
-        <v>12.8</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="726">
@@ -28752,7 +28742,7 @@
         <v>8</v>
       </c>
       <c r="I726" t="n">
-        <v>14</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="727">
@@ -28791,7 +28781,7 @@
         <v>1</v>
       </c>
       <c r="I727" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="728">
@@ -28830,7 +28820,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -28869,7 +28859,7 @@
         <v>1</v>
       </c>
       <c r="I729" t="n">
-        <v>12.8</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="730">
@@ -28907,9 +28897,7 @@
       <c r="H730" t="n">
         <v>0</v>
       </c>
-      <c r="I730" t="n">
-        <v>0</v>
-      </c>
+      <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -28947,7 +28935,7 @@
         <v>2</v>
       </c>
       <c r="I731" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="732">
@@ -28986,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -29064,7 +29052,7 @@
         <v>2</v>
       </c>
       <c r="I734" t="n">
-        <v>13</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="735">
@@ -29103,7 +29091,7 @@
         <v>1</v>
       </c>
       <c r="I735" t="n">
-        <v>5.1</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="736">
@@ -29142,7 +29130,7 @@
         <v>1</v>
       </c>
       <c r="I736" t="n">
-        <v>2.9</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="737">
@@ -29181,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -29220,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -29259,7 +29247,7 @@
         <v>7</v>
       </c>
       <c r="I739" t="n">
-        <v>14.7</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="740">
@@ -29298,7 +29286,7 @@
         <v>2</v>
       </c>
       <c r="I740" t="n">
-        <v>10.9</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="741">
@@ -29337,7 +29325,7 @@
         <v>9</v>
       </c>
       <c r="I741" t="n">
-        <v>27.3</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="742">
@@ -29376,7 +29364,7 @@
         <v>7</v>
       </c>
       <c r="I742" t="n">
-        <v>20.8</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="743">
@@ -29415,7 +29403,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -29454,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -29493,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -29610,7 +29598,7 @@
         <v>4</v>
       </c>
       <c r="I748" t="n">
-        <v>19</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="749">
@@ -29649,7 +29637,7 @@
         <v>6</v>
       </c>
       <c r="I749" t="n">
-        <v>14.6</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="750">
@@ -29688,7 +29676,7 @@
         <v>5</v>
       </c>
       <c r="I750" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="751">
@@ -29766,7 +29754,7 @@
         <v>4</v>
       </c>
       <c r="I752" t="n">
-        <v>7.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="753">
@@ -29805,7 +29793,7 @@
         <v>1</v>
       </c>
       <c r="I753" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="754">
@@ -29844,7 +29832,7 @@
         <v>11</v>
       </c>
       <c r="I754" t="n">
-        <v>33.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755">
@@ -29961,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -30078,7 +30066,7 @@
         <v>6</v>
       </c>
       <c r="I760" t="n">
-        <v>7.8</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="761">
@@ -30234,7 +30222,7 @@
         <v>1</v>
       </c>
       <c r="I764" t="n">
-        <v>7.9</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="765">
@@ -30273,7 +30261,7 @@
         <v>7</v>
       </c>
       <c r="I765" t="n">
-        <v>9.800000000000001</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="766">
@@ -30390,7 +30378,7 @@
         <v>7</v>
       </c>
       <c r="I768" t="n">
-        <v>17.1</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="769">
@@ -30429,7 +30417,7 @@
         <v>2</v>
       </c>
       <c r="I769" t="n">
-        <v>9.5</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="770">
@@ -30468,7 +30456,7 @@
         <v>8</v>
       </c>
       <c r="I770" t="n">
-        <v>14.4</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="771">
@@ -30507,7 +30495,7 @@
         <v>6</v>
       </c>
       <c r="I771" t="n">
-        <v>7.9</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="772">
@@ -30546,7 +30534,7 @@
         <v>2</v>
       </c>
       <c r="I772" t="n">
-        <v>9.1</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="773">
@@ -30585,7 +30573,7 @@
         <v>2</v>
       </c>
       <c r="I773" t="n">
-        <v>10.9</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="774">
@@ -30624,7 +30612,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -30819,7 +30807,7 @@
         <v>2</v>
       </c>
       <c r="I779" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="780">
@@ -30858,7 +30846,7 @@
         <v>7</v>
       </c>
       <c r="I780" t="n">
-        <v>8.699999999999999</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="781">
@@ -30936,7 +30924,7 @@
         <v>1</v>
       </c>
       <c r="I782" t="n">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="783">
@@ -30975,7 +30963,7 @@
         <v>3</v>
       </c>
       <c r="I783" t="n">
-        <v>10.3</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="784">
@@ -31053,7 +31041,7 @@
         <v>11</v>
       </c>
       <c r="I785" t="n">
-        <v>6.6</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="786">
@@ -31131,7 +31119,7 @@
         <v>11</v>
       </c>
       <c r="I787" t="n">
-        <v>1.9</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="788">
@@ -31170,7 +31158,7 @@
         <v>1</v>
       </c>
       <c r="I788" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="789">
@@ -31248,7 +31236,7 @@
         <v>1</v>
       </c>
       <c r="I790" t="n">
-        <v>2.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="791">
@@ -31287,7 +31275,7 @@
         <v>17</v>
       </c>
       <c r="I791" t="n">
-        <v>15.4</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="792">
@@ -31326,7 +31314,7 @@
         <v>4</v>
       </c>
       <c r="I792" t="n">
-        <v>12.2</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="793">
@@ -31365,7 +31353,7 @@
         <v>5</v>
       </c>
       <c r="I793" t="n">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="794">
@@ -31443,7 +31431,7 @@
         <v>3</v>
       </c>
       <c r="I795" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="796">
@@ -31482,7 +31470,7 @@
         <v>4</v>
       </c>
       <c r="I796" t="n">
-        <v>8.6</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="797">
@@ -31521,7 +31509,7 @@
         <v>3</v>
       </c>
       <c r="I797" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="798">
@@ -31560,7 +31548,7 @@
         <v>1</v>
       </c>
       <c r="I798" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="799">
@@ -31599,7 +31587,7 @@
         <v>1</v>
       </c>
       <c r="I799" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="800">
@@ -31677,7 +31665,7 @@
         <v>2</v>
       </c>
       <c r="I801" t="n">
-        <v>3.7</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="802">
@@ -31716,7 +31704,7 @@
         <v>2</v>
       </c>
       <c r="I802" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="803">
@@ -31755,7 +31743,7 @@
         <v>1</v>
       </c>
       <c r="I803" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="804">
@@ -31872,7 +31860,7 @@
         <v>2</v>
       </c>
       <c r="I806" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="807">
@@ -31911,7 +31899,7 @@
         <v>5</v>
       </c>
       <c r="I807" t="n">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="808">
@@ -31950,7 +31938,7 @@
         <v>3</v>
       </c>
       <c r="I808" t="n">
-        <v>7.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="809">
@@ -31989,7 +31977,7 @@
         <v>2</v>
       </c>
       <c r="I809" t="n">
-        <v>9.699999999999999</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="810">
@@ -32028,7 +32016,7 @@
         <v>1</v>
       </c>
       <c r="I810" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="811">
@@ -32067,7 +32055,7 @@
         <v>1</v>
       </c>
       <c r="I811" t="n">
-        <v>2.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="812">
@@ -32106,7 +32094,7 @@
         <v>4</v>
       </c>
       <c r="I812" t="n">
-        <v>12.3</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="813">
@@ -32145,7 +32133,7 @@
         <v>3</v>
       </c>
       <c r="I813" t="n">
-        <v>8.4</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="814">
@@ -32184,7 +32172,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -32223,7 +32211,7 @@
         <v>2</v>
       </c>
       <c r="I815" t="n">
-        <v>4.9</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="816">
@@ -32262,7 +32250,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -32301,7 +32289,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -32379,7 +32367,7 @@
         <v>8</v>
       </c>
       <c r="I819" t="n">
-        <v>15.8</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="820">
@@ -32418,7 +32406,7 @@
         <v>3</v>
       </c>
       <c r="I820" t="n">
-        <v>14.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="821">
@@ -32457,7 +32445,7 @@
         <v>7</v>
       </c>
       <c r="I821" t="n">
-        <v>11.6</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="822">
@@ -32574,7 +32562,7 @@
         <v>1</v>
       </c>
       <c r="I824" t="n">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="825">
@@ -32651,9 +32639,7 @@
       <c r="H826" t="n">
         <v>0</v>
       </c>
-      <c r="I826" t="n">
-        <v>0</v>
-      </c>
+      <c r="I826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -32691,7 +32677,7 @@
         <v>1</v>
       </c>
       <c r="I827" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="828">
@@ -32730,7 +32716,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -32769,7 +32755,7 @@
         <v>2</v>
       </c>
       <c r="I829" t="n">
-        <v>34.6</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="830">
@@ -32808,7 +32794,7 @@
         <v>4</v>
       </c>
       <c r="I830" t="n">
-        <v>55.6</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="831">
@@ -32847,7 +32833,7 @@
         <v>5</v>
       </c>
       <c r="I831" t="n">
-        <v>17.1</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="832">
@@ -32886,7 +32872,7 @@
         <v>8</v>
       </c>
       <c r="I832" t="n">
-        <v>20.2</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="833">
@@ -32964,7 +32950,7 @@
         <v>3</v>
       </c>
       <c r="I834" t="n">
-        <v>16.8</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="835">
@@ -33003,7 +32989,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -33042,7 +33028,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -33081,7 +33067,7 @@
         <v>3</v>
       </c>
       <c r="I837" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838">
@@ -33159,7 +33145,7 @@
         <v>3</v>
       </c>
       <c r="I839" t="n">
-        <v>13.1</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="840">
@@ -33237,7 +33223,7 @@
         <v>11</v>
       </c>
       <c r="I841" t="n">
-        <v>19.6</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="842">
@@ -33276,7 +33262,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843">
@@ -33315,7 +33301,7 @@
         <v>2</v>
       </c>
       <c r="I843" t="n">
-        <v>8.5</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="844">
@@ -33432,7 +33418,7 @@
         <v>10</v>
       </c>
       <c r="I846" t="n">
-        <v>6.2</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="847">
@@ -33510,7 +33496,7 @@
         <v>4</v>
       </c>
       <c r="I848" t="n">
-        <v>6.1</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="849">
@@ -33588,7 +33574,7 @@
         <v>1</v>
       </c>
       <c r="I850" t="n">
-        <v>2.6</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="851">
@@ -33627,7 +33613,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -33666,7 +33652,7 @@
         <v>7</v>
       </c>
       <c r="I852" t="n">
-        <v>3.9</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="853">
@@ -33743,9 +33729,7 @@
       <c r="H854" t="n">
         <v>0</v>
       </c>
-      <c r="I854" t="n">
-        <v>0</v>
-      </c>
+      <c r="I854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -33783,7 +33767,7 @@
         <v>11</v>
       </c>
       <c r="I855" t="n">
-        <v>12.2</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="856">
@@ -33822,7 +33806,7 @@
         <v>1</v>
       </c>
       <c r="I856" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="857">
@@ -33861,7 +33845,7 @@
         <v>2</v>
       </c>
       <c r="I857" t="n">
-        <v>5.6</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="858">
@@ -33900,7 +33884,7 @@
         <v>2</v>
       </c>
       <c r="I858" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="859">
@@ -34017,7 +34001,7 @@
         <v>3</v>
       </c>
       <c r="I861" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="862">
@@ -34056,7 +34040,7 @@
         <v>3</v>
       </c>
       <c r="I862" t="n">
-        <v>9.300000000000001</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="863">
@@ -34095,7 +34079,7 @@
         <v>13</v>
       </c>
       <c r="I863" t="n">
-        <v>20.8</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="864">
@@ -34173,7 +34157,7 @@
         <v>6</v>
       </c>
       <c r="I865" t="n">
-        <v>17.8</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="866">
@@ -34251,7 +34235,7 @@
         <v>17</v>
       </c>
       <c r="I867" t="n">
-        <v>15.6</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="868">
@@ -34329,7 +34313,7 @@
         <v>1</v>
       </c>
       <c r="I869" t="n">
-        <v>5.9</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="870">
@@ -34368,7 +34352,7 @@
         <v>7</v>
       </c>
       <c r="I870" t="n">
-        <v>36.8</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="871">
@@ -34407,7 +34391,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -34446,7 +34430,7 @@
         <v>8</v>
       </c>
       <c r="I872" t="n">
-        <v>3.9</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="873">
@@ -34524,7 +34508,7 @@
         <v>1</v>
       </c>
       <c r="I874" t="n">
-        <v>22.2</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="875">
@@ -34563,7 +34547,7 @@
         <v>6</v>
       </c>
       <c r="I875" t="n">
-        <v>3.7</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="876">
@@ -34641,7 +34625,7 @@
         <v>6</v>
       </c>
       <c r="I877" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="878">
@@ -34680,7 +34664,7 @@
         <v>12</v>
       </c>
       <c r="I878" t="n">
-        <v>8.199999999999999</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="879">
@@ -34719,7 +34703,7 @@
         <v>2</v>
       </c>
       <c r="I879" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="880">
@@ -34758,7 +34742,7 @@
         <v>13</v>
       </c>
       <c r="I880" t="n">
-        <v>4</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="881">
@@ -34836,7 +34820,7 @@
         <v>4</v>
       </c>
       <c r="I882" t="n">
-        <v>8.4</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="883">
@@ -34875,7 +34859,7 @@
         <v>5</v>
       </c>
       <c r="I883" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -34914,7 +34898,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -34953,7 +34937,7 @@
         <v>13</v>
       </c>
       <c r="I885" t="n">
-        <v>9.699999999999999</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="886">
@@ -34992,7 +34976,7 @@
         <v>10</v>
       </c>
       <c r="I886" t="n">
-        <v>31.1</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="887">
@@ -35031,7 +35015,7 @@
         <v>9</v>
       </c>
       <c r="I887" t="n">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="888">
@@ -35070,7 +35054,7 @@
         <v>6</v>
       </c>
       <c r="I888" t="n">
-        <v>10.8</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="889">
@@ -35109,7 +35093,7 @@
         <v>8</v>
       </c>
       <c r="I889" t="n">
-        <v>11</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="890">
@@ -35148,7 +35132,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -35187,7 +35171,7 @@
         <v>5</v>
       </c>
       <c r="I891" t="n">
-        <v>35.7</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="892">
@@ -35226,7 +35210,7 @@
         <v>3</v>
       </c>
       <c r="I892" t="n">
-        <v>31.3</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="893">
@@ -35265,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -35343,7 +35327,7 @@
         <v>4</v>
       </c>
       <c r="I895" t="n">
-        <v>20.8</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="896">
@@ -35382,7 +35366,7 @@
         <v>2</v>
       </c>
       <c r="I896" t="n">
-        <v>2.9</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="897">
@@ -35694,7 +35678,7 @@
         <v>8</v>
       </c>
       <c r="I904" t="n">
-        <v>4.9</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="905">
@@ -35733,7 +35717,7 @@
         <v>2</v>
       </c>
       <c r="I905" t="n">
-        <v>14.3</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="906">
@@ -35772,7 +35756,7 @@
         <v>9</v>
       </c>
       <c r="I906" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="907">
@@ -35811,7 +35795,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -35850,7 +35834,7 @@
         <v>7</v>
       </c>
       <c r="I908" t="n">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="909">
@@ -35889,7 +35873,7 @@
         <v>1</v>
       </c>
       <c r="I909" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="910">
@@ -35928,7 +35912,7 @@
         <v>10</v>
       </c>
       <c r="I910" t="n">
-        <v>6.7</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="911">
@@ -35967,7 +35951,7 @@
         <v>1</v>
       </c>
       <c r="I911" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="912">
@@ -36006,7 +35990,7 @@
         <v>13</v>
       </c>
       <c r="I912" t="n">
-        <v>8.300000000000001</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="913">
@@ -36084,7 +36068,7 @@
         <v>4</v>
       </c>
       <c r="I914" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="915">
@@ -36123,7 +36107,7 @@
         <v>13</v>
       </c>
       <c r="I915" t="n">
-        <v>5</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="916">
@@ -36162,7 +36146,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -36201,7 +36185,7 @@
         <v>14</v>
       </c>
       <c r="I917" t="n">
-        <v>6.3</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="918">
@@ -36240,7 +36224,7 @@
         <v>7</v>
       </c>
       <c r="I918" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="919">
@@ -36279,7 +36263,7 @@
         <v>16</v>
       </c>
       <c r="I919" t="n">
-        <v>7.3</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="920">
@@ -36318,7 +36302,7 @@
         <v>1</v>
       </c>
       <c r="I920" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="921">
@@ -36357,7 +36341,7 @@
         <v>7</v>
       </c>
       <c r="I921" t="n">
-        <v>6.4</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="922">
@@ -36396,7 +36380,7 @@
         <v>2</v>
       </c>
       <c r="I922" t="n">
-        <v>13.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="923">
@@ -36434,9 +36418,7 @@
       <c r="H923" t="n">
         <v>0</v>
       </c>
-      <c r="I923" t="n">
-        <v>0</v>
-      </c>
+      <c r="I923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -36474,7 +36456,7 @@
         <v>2</v>
       </c>
       <c r="I924" t="n">
-        <v>27.3</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="925">
@@ -36513,7 +36495,7 @@
         <v>4</v>
       </c>
       <c r="I925" t="n">
-        <v>15.3</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="926">
@@ -36669,7 +36651,7 @@
         <v>7</v>
       </c>
       <c r="I929" t="n">
-        <v>32.8</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="930">
